--- a/Country_Data/Norway_GuestNights.xlsx
+++ b/Country_Data/Norway_GuestNights.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Sufficient-strategies-for-travel-quarantine-and-testing\Country_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD551EFF-176F-43C3-8E15-6BDD567CB346}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989D09B0-2AF1-4CA5-957B-583180A040D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>Belarus</t>
   </si>
   <si>
-    <t>Ireland</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -437,6 +434,9 @@
   </si>
   <si>
     <t>Y2019</t>
+  </si>
+  <si>
+    <t>Republic of Ireland</t>
   </si>
 </sst>
 </file>
@@ -804,7 +804,7 @@
   <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3">
         <v>1611</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3">
         <v>10243</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3">
         <v>10</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3">
         <v>509</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3">
         <v>1740</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3">
         <v>24</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3">
         <v>5729</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3">
         <v>187</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3">
         <v>70</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3">
         <v>159</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3">
         <v>7</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="3">
         <v>27</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="3">
         <v>194</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3">
         <v>14853</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3">
         <v>14152</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3">
         <v>1616</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3">
         <v>1495</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3">
         <v>6127</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="3">
         <v>48</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="3">
         <v>119</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="3">
         <v>1129</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="3">
         <v>504</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="3">
         <v>40671</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="3">
         <v>8027</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="3">
         <v>6997</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="3">
         <v>1435</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3">
         <v>575</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="3">
         <v>36946</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="3">
         <v>1253</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="3">
         <v>1215</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="3">
         <v>3490</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="3">
         <v>8</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="3">
         <v>915</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="3">
         <v>839</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="3">
         <v>5160</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="3">
         <v>702</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="3">
         <v>707</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="3">
         <v>501</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="3">
         <v>1958</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="3">
         <v>1244</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="3">
         <v>1463</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="3">
         <v>3519</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="3">
         <v>10506</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="3">
         <v>832</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="3">
         <v>174</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="3">
         <v>1518</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="3">
         <v>646</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="3">
         <v>32331</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="3">
         <v>2343</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="3">
         <v>8247</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" s="3">
         <v>2247</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" s="3">
         <v>730</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" s="3">
         <v>5383</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" s="3">
         <v>3528</v>
@@ -4067,182 +4067,182 @@
     </row>
     <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -4252,27 +4252,27 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
